--- a/Supplemental information/SensorDrop device design considerations, potential pitfalls, and resolutions .xlsx
+++ b/Supplemental information/SensorDrop device design considerations, potential pitfalls, and resolutions .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021_12_26 - Full C Drive BU\Users\kasim\Dropbox\Working directory\Papers\Sensor detachment system\GitHub files\Additional information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasim\Documents\1. My Documents\1. University\Papers\Sensor detachment system\GitHub files\Supplemental information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475579EF-638B-45AD-95B0-38F6CCD609E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF6150-F07B-47AC-97D2-B51AF7C4D946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{95F490D8-D544-4D18-875C-FFD3EE7C0EF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Possible solutions</t>
   </si>
@@ -84,6 +84,15 @@
 - Increase the wire length between the battery and OpenDrop PCB and/or the nichrome element and the OpenDrop PCB.
 - Use a larger guage (thicker) of nichrome.
 - Use a lower-capacity battery</t>
+  </si>
+  <si>
+    <t>VHF transmitter not used meaning there is a hole in the bottom of the drop-off plate.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill the hole with silicon sealant and allow it to cure completely. This will technically be a 'weak' point in the drop-off plate. However, the location of this point, i.e., against the belting, means it will face significant exposure to the environment once the SensorDrop system detaches. </t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:3" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
